--- a/credit_rating/Standard and Formula Rating Q4.xlsx
+++ b/credit_rating/Standard and Formula Rating Q4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PhuHung\Price Manipulation\FA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\credit_rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="450" windowWidth="19200" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19200" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Scale">#REF!</definedName>
     <definedName name="VCSC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1018,7 +1018,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -4128,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/credit_rating/Standard and Formula Rating Q4.xlsx
+++ b/credit_rating/Standard and Formula Rating Q4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="19200" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="19200" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Scale">#REF!</definedName>
     <definedName name="VCSC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="188">
   <si>
     <t>CHỈ TIÊU</t>
   </si>
@@ -869,9 +869,6 @@
   </si>
   <si>
     <t>WC tunrover</t>
-  </si>
-  <si>
-    <t>Inventory turnover</t>
   </si>
   <si>
     <t>AR turnover</t>
@@ -4126,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4147,7 @@
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,7 +4159,7 @@
         <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,7 +4171,7 @@
         <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4186,7 +4183,7 @@
         <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4198,7 +4195,7 @@
         <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4207,10 +4204,10 @@
         <v>140</v>
       </c>
       <c r="C6" s="224" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" t="s">
         <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4222,7 +4219,7 @@
         <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,7 +4231,7 @@
         <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4243,10 +4240,10 @@
         <v>146</v>
       </c>
       <c r="C9" s="224" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,7 +4255,7 @@
         <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,7 +4279,7 @@
         <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,29 +4331,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="244"/>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="228" t="s">
-        <v>139</v>
+      <c r="C18" s="224" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="227" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="224" t="s">
-        <v>141</v>
+      <c r="C19" s="228" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="244"/>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="228" t="s">
-        <v>143</v>
+      <c r="C20" s="224" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,7 +4362,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="224" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,63 +4371,63 @@
         <v>163</v>
       </c>
       <c r="C22" s="224" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="244"/>
       <c r="B23" s="223" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="245"/>
+      <c r="B24" s="229" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="226" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="246" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="224" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="244"/>
-      <c r="B24" s="223" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="224" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="245"/>
-      <c r="B25" s="229" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="226" t="s">
-        <v>152</v>
+      <c r="B25" s="221" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="222" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="246" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="221" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="222" t="s">
-        <v>131</v>
+      <c r="A26" s="247"/>
+      <c r="B26" s="223" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="224" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="247"/>
       <c r="B27" s="223" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C27" s="224" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="247"/>
       <c r="B28" s="223" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C28" s="224" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,65 +4436,65 @@
         <v>166</v>
       </c>
       <c r="C29" s="224" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="247"/>
       <c r="B30" s="223" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C30" s="224" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="247"/>
       <c r="B31" s="223" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C31" s="224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="247"/>
+      <c r="B32" s="230" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="231" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="232"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="234"/>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="248" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="247"/>
-      <c r="B32" s="223" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="224" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="247"/>
-      <c r="B33" s="230" t="s">
+      <c r="B34" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="236" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="249"/>
+      <c r="B35" s="237" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="231" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="232"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="235" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="236" t="s">
+      <c r="C35" s="224" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="249"/>
       <c r="B36" s="237" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" s="224" t="s">
         <v>174</v>
@@ -4506,43 +4503,43 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="249"/>
       <c r="B37" s="237" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C37" s="224" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="249"/>
       <c r="B38" s="237" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" s="224" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="249"/>
-      <c r="B39" s="237" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="224" t="s">
+      <c r="B39" s="238" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="239" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="249"/>
-      <c r="B40" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="239" t="s">
+      <c r="B40" s="237" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="224" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="249"/>
       <c r="B41" s="237" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C41" s="224" t="s">
         <v>182</v>
@@ -4551,36 +4548,27 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="249"/>
       <c r="B42" s="237" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="224" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="250"/>
+      <c r="B43" s="240" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="249"/>
-      <c r="B43" s="237" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="224" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="250"/>
-      <c r="B44" s="240" t="s">
+      <c r="C43" s="241" t="s">
         <v>184</v>
-      </c>
-      <c r="C44" s="241" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A14"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A34:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
